--- a/lab2/Книга1.xlsx
+++ b/lab2/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\user1\numeric-labs\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CDC4B5-1D32-4F89-8293-828C6F2EA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6BC89-8744-414E-984A-0AFCB14613B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14190" yWindow="7260" windowWidth="21600" windowHeight="11385" xr2:uid="{5C2407D6-47B3-40EF-94C3-A68D291F11FF}"/>
+    <workbookView xWindow="13710" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{5C2407D6-47B3-40EF-94C3-A68D291F11FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -400,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -439,6 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -1650,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFAE869-CBF6-4C4C-B8C2-45951219F89A}">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1842,7 @@
         <v>2.73</v>
       </c>
       <c r="E13" s="27">
-        <v>3.7608688063286002</v>
+        <v>3.4232726156097999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1854,7 +1858,7 @@
         <v>2.3376911686533788</v>
       </c>
       <c r="E14" s="27">
-        <v>2.8402288292254001</v>
+        <v>2.6636313127158999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1870,7 +1874,7 @@
         <v>2.001758241758242</v>
       </c>
       <c r="E15" s="27">
-        <v>2.0398819362706</v>
+        <v>1.9952232437501001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1888,9 +1892,9 @@
       <c r="B18" s="20">
         <v>7</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="32">
         <f ca="1">ABS($E$15-$D$15)</f>
-        <v>3.8123694512357975E-2</v>
+        <v>6.5349980081419456E-3</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>11</v>
@@ -1900,59 +1904,59 @@
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="33">
         <f ca="1">ABS($E$14-$D$13)</f>
-        <v>0.11022882922540012</v>
+        <v>6.6368687284100059E-2</v>
       </c>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6">
-        <f ca="1">ABS($E$15-$D$14)</f>
-        <v>0.29780923238277879</v>
+        <v>2</v>
+      </c>
+      <c r="C20" s="33">
+        <f ca="1">ABS($E$14-$D$14)</f>
+        <v>0.32594014406252114</v>
       </c>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
-        <f ca="1">ABS($E$14-$D$14)</f>
-        <v>0.50253766057202132</v>
+        <v>8</v>
+      </c>
+      <c r="C21" s="33">
+        <f ca="1">ABS($E$15-$D$14)</f>
+        <v>0.34246792490327871</v>
       </c>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6">
-        <f ca="1">ABS($E$15-$D$13)</f>
-        <v>0.69011806372939999</v>
+        <v>9</v>
+      </c>
+      <c r="C22" s="33">
+        <f ca="1">ABS($E$14-$D$15)</f>
+        <v>0.66187307095765791</v>
       </c>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <f ca="1">ABS($E$14-$D$15)</f>
-        <v>0.83847058746715808</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="33">
+        <f ca="1">ABS($E$13-$D$13)</f>
+        <v>0.69327261560979991</v>
       </c>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <f ca="1">ABS($E$13-$D$13)</f>
-        <v>1.0308688063286002</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="33">
+        <f ca="1">ABS($E$15-$D$13)</f>
+        <v>0.73477675624989991</v>
       </c>
       <c r="D24" s="17"/>
     </row>
@@ -1960,9 +1964,9 @@
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="33">
         <f ca="1">ABS($E$13-$D$14)</f>
-        <v>1.4231776376752214</v>
+        <v>1.0855814469564211</v>
       </c>
       <c r="D25" s="17"/>
     </row>
@@ -1970,9 +1974,9 @@
       <c r="B26" s="4">
         <v>6</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="34">
         <f ca="1">ABS($E$13-$D$15)</f>
-        <v>1.7591105645703582</v>
+        <v>1.4215143738515579</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>15</v>
